--- a/data/evaluation/evaluation_North_Winter_Eggplants.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3893.422842775626</v>
+        <v>3933.203407425907</v>
       </c>
       <c r="C4" t="n">
-        <v>20686735.08891254</v>
+        <v>22206091.66279485</v>
       </c>
       <c r="D4" t="n">
-        <v>4548.267262256314</v>
+        <v>4712.333993128548</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3021064759820926</v>
+        <v>-0.397740901891982</v>
       </c>
     </row>
     <row r="5">
